--- a/Resultats.xlsx
+++ b/Resultats.xlsx
@@ -257,16 +257,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -283,148 +285,21 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -519,7 +394,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -543,56 +418,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -601,7 +428,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,11 +452,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,7 +464,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -633,27 +476,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,107 +504,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -772,11 +531,11 @@
   </sheetPr>
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K45" activeCellId="0" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.85"/>
@@ -786,1142 +545,1226 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="17.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7" t="n">
         <v>1698</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="7" t="n">
         <v>3319</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="8" t="n">
         <v>1733</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="8" t="n">
         <v>1743</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="9" t="n">
         <v>1699</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="10" t="n">
         <v>1698</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11" t="n">
+        <v>1697.72</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="12" t="n">
         <v>3235</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="12" t="n">
         <v>6118</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="13" t="n">
         <v>3260</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="13" t="n">
         <v>3266</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="14" t="n">
         <v>3243</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="I4" s="15" t="n">
         <v>3235</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="n">
+        <v>3234.74</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="12" t="n">
         <v>1360</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="12" t="n">
         <v>3034</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="13" t="n">
         <v>1376</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="13" t="n">
         <v>1386</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="14" t="n">
         <v>1360</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="15" t="n">
         <v>1360</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16" t="n">
+        <v>1358.56</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="12" t="n">
         <v>2623</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="12" t="n">
         <v>6062</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="13" t="n">
         <v>2654</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="13" t="n">
         <v>2667</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="14" t="n">
         <v>2625</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="15" t="n">
         <v>2623</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16" t="n">
+        <v>2623</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="12" t="n">
         <v>1158</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="12" t="n">
         <v>2871</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="13" t="n">
         <v>1179</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="13" t="n">
         <v>1167</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="14" t="n">
         <v>1158</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="15" t="n">
         <v>1158</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16" t="n">
+        <v>1157.08</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="17" t="n">
         <v>2339</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="17" t="n">
         <v>6011</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="18" t="n">
         <v>2362</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="18" t="n">
         <v>2367</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="14" t="n">
         <v>2354</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="15" t="n">
         <v>2341</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16" t="n">
+        <v>2337.38</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="7" t="n">
         <v>1843</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="7" t="n">
         <v>2915</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="8" t="n">
         <v>2468</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="8" t="n">
         <v>2368</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="14" t="n">
         <v>1838</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="13" t="n">
+      <c r="I9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="15" t="n">
         <v>4485</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="16" t="n">
+        <v>1831.33</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="12" t="n">
         <v>3552</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="12" t="n">
         <v>5923</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="13" t="n">
         <v>4346</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="13" t="n">
         <v>4358</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="14" t="n">
         <v>3646</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="I10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16" t="n">
+        <v>3547.41</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="12" t="n">
         <v>1407</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="12" t="n">
         <v>2799</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="13" t="n">
         <v>1558</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="13" t="n">
         <v>1542</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="14" t="n">
         <v>1406</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16" t="n">
+        <v>1400.67</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="12" t="n">
         <v>2827</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="12" t="n">
         <v>6023</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="13" t="n">
         <v>3730</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="13" t="n">
         <v>3673</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="14" t="n">
         <v>2956</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="I12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16" t="n">
+        <v>2815.05</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="12" t="n">
         <v>1166</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="12" t="n">
         <v>2902</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="13" t="n">
         <v>1251</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="13" t="n">
         <v>1285</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="14" t="n">
         <v>1166</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16" t="n">
+        <v>1155.18</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D14" s="17" t="n">
         <v>2339</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="17" t="n">
         <v>5964</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="18" t="n">
         <v>2501</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="18" t="n">
         <v>2517</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="14" t="n">
         <v>2354</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="I14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16" t="n">
+        <v>2331.14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="7" t="n">
         <v>1931</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="7" t="n">
         <v>3293</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="8" t="n">
         <v>2308</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="8" t="n">
         <v>2492</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="14" t="n">
         <v>1929</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
+      <c r="I15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16" t="n">
+        <v>1923.97</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="12" t="n">
         <v>3456</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="12" t="n">
         <v>5806</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="13" t="n">
         <v>4053</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="13" t="n">
         <v>4096</v>
       </c>
-      <c r="H16" s="12" t="n">
+      <c r="H16" s="14" t="n">
         <v>3566</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="I16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16" t="n">
+        <v>3450.76</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="12" t="n">
         <v>1402</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="12" t="n">
         <v>3185</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="13" t="n">
         <v>1876</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="13" t="n">
         <v>1719</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="14" t="n">
         <v>1399</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16" t="n">
+        <v>1387.01</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="12" t="n">
         <v>2806</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="12" t="n">
         <v>6050</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="13" t="n">
         <v>3537</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="13" t="n">
         <v>3600</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="14" t="n">
         <v>3004</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
+      <c r="I18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16" t="n">
+        <v>2795.41</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="12" t="n">
         <v>5597</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="12" t="n">
         <v>11971</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="13" t="n">
         <v>7397</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="13" t="n">
         <v>7242</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="14" t="n">
         <v>5786</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="I19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16" t="n">
+        <v>5591.1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="12" t="n">
         <v>27371</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="13" t="n">
         <v>15604</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="13" t="n">
         <v>14808</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="H20" s="14" t="n">
         <v>11628</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="I20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16" t="n">
+        <v>11336.57</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="12" t="n">
         <v>1243</v>
       </c>
-      <c r="E21" s="10" t="n">
+      <c r="E21" s="12" t="n">
         <v>2954</v>
       </c>
-      <c r="F21" s="11" t="n">
+      <c r="F21" s="13" t="n">
         <v>1580</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="13" t="n">
         <v>1475</v>
       </c>
-      <c r="H21" s="12" t="n">
+      <c r="H21" s="14" t="n">
         <v>1241</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="I21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16" t="n">
+        <v>1218.99</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="12" t="n">
         <v>2391</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="12" t="n">
         <v>5863</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="13" t="n">
         <v>3092</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="13" t="n">
         <v>2948</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="14" t="n">
         <v>2390</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+      <c r="I22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16" t="n">
+        <v>2376.91</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="10" t="n">
+      <c r="E23" s="12" t="n">
         <v>12192</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="13" t="n">
         <v>6712</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="13" t="n">
         <v>6598</v>
       </c>
-      <c r="H23" s="12" t="n">
+      <c r="H23" s="14" t="n">
         <v>4953</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
+      <c r="I23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16" t="n">
+        <v>4774.15</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="12" t="n">
         <v>27028</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="13" t="n">
         <v>13998</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="13" t="n">
         <v>13807</v>
       </c>
-      <c r="H24" s="12" t="n">
+      <c r="H24" s="14" t="n">
         <v>10341</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
+      <c r="I24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16" t="n">
+        <v>9974.682</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="12" t="n">
         <v>4244</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="12" t="n">
         <v>12372</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="13" t="n">
         <v>5010</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="13" t="n">
         <v>4816</v>
       </c>
-      <c r="H25" s="12" t="n">
+      <c r="H25" s="14" t="n">
         <v>4422</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
+      <c r="I25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16" t="n">
+        <v>4231.98</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="10" t="n">
+      <c r="E26" s="12" t="n">
         <v>26619</v>
       </c>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="13" t="n">
         <v>10812</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="13" t="n">
         <v>10928</v>
       </c>
-      <c r="H26" s="12" t="n">
+      <c r="H26" s="14" t="n">
         <v>9656</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
+      <c r="I26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16" t="n">
+        <v>9315.04</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E27" s="12" t="n">
         <v>48285</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="13" t="n">
         <v>26058</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="13" t="n">
         <v>26209</v>
       </c>
-      <c r="H27" s="12" t="n">
+      <c r="H27" s="14" t="n">
         <v>19229</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
+      <c r="I27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16" t="n">
+        <v>18798.57</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="10" t="n">
+      <c r="E28" s="12" t="n">
         <v>47257</v>
       </c>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="13" t="n">
         <v>21995</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="13" t="n">
         <v>22285</v>
       </c>
-      <c r="H28" s="12" t="n">
+      <c r="H28" s="14" t="n">
         <v>17638</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
+      <c r="I28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16" t="n">
+        <v>17139.325</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="17" t="n">
         <v>48877</v>
       </c>
-      <c r="F29" s="16" t="n">
+      <c r="F29" s="18" t="n">
         <v>19892</v>
       </c>
-      <c r="G29" s="16" t="n">
+      <c r="G29" s="18" t="n">
         <v>19572</v>
       </c>
-      <c r="H29" s="12" t="n">
+      <c r="H29" s="14" t="n">
         <v>16735</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
+      <c r="I29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16" t="n">
+        <v>16283</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="7" t="n">
         <v>6353</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="7" t="n">
         <v>9062</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="8" t="n">
         <v>6977</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="8" t="n">
         <v>7013</v>
       </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="14" t="n">
         <v>6349</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
+      <c r="I30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16" t="n">
+        <v>6345.413</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="12" t="n">
         <v>18610</v>
       </c>
-      <c r="F31" s="17" t="n">
+      <c r="F31" s="19" t="n">
         <v>14029</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="13" t="n">
         <v>14009</v>
       </c>
-      <c r="H31" s="12" t="n">
+      <c r="H31" s="14" t="n">
         <v>12942</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
+      <c r="I31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16" t="n">
+        <v>12736.196</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="12" t="n">
         <v>10146</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="13" t="n">
         <v>7104</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="13" t="n">
         <v>7039</v>
       </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="14" t="n">
         <v>6341</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
+      <c r="I32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16" t="n">
+        <v>6323.456</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="12" t="n">
         <v>20300</v>
       </c>
-      <c r="F33" s="11" t="n">
+      <c r="F33" s="13" t="n">
         <v>13958</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="13" t="n">
         <v>13931</v>
       </c>
-      <c r="H33" s="12" t="n">
+      <c r="H33" s="14" t="n">
         <v>12506</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
+      <c r="I33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16" t="n">
+        <v>12418.362</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="10" t="n">
+      <c r="E34" s="12" t="n">
         <v>40576</v>
       </c>
-      <c r="F34" s="11" t="n">
+      <c r="F34" s="13" t="n">
         <v>27966</v>
       </c>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="13" t="n">
         <v>27784</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="14" t="n">
         <v>26230</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16" t="n">
+        <v>24955.995</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="10" t="n">
+      <c r="E35" s="12" t="n">
         <v>93985</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="13" t="n">
         <v>62182</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="13" t="n">
         <v>61873</v>
       </c>
-      <c r="H35" s="12" t="n">
+      <c r="H35" s="14" t="n">
         <v>58304</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
+      <c r="I35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16" t="n">
+        <v>55400.467</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E36" s="12" t="n">
         <v>10630</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="13" t="n">
         <v>6897</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="13" t="n">
         <v>6848</v>
       </c>
-      <c r="H36" s="12" t="n">
+      <c r="H36" s="14" t="n">
         <v>6176</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
+      <c r="I36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16" t="n">
+        <v>6142.53</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="10" t="n">
+      <c r="E37" s="12" t="n">
         <v>21251</v>
       </c>
-      <c r="F37" s="11" t="n">
+      <c r="F37" s="13" t="n">
         <v>13717</v>
       </c>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="13" t="n">
         <v>13808</v>
       </c>
-      <c r="H37" s="12" t="n">
+      <c r="H37" s="14" t="n">
         <v>12230</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
+      <c r="I37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16" t="n">
+        <v>12217.693</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="10" t="n">
+      <c r="E38" s="12" t="n">
         <v>42398</v>
       </c>
-      <c r="F38" s="11" t="n">
+      <c r="F38" s="13" t="n">
         <v>27374</v>
       </c>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="13" t="n">
         <v>27611</v>
       </c>
-      <c r="H38" s="12" t="n">
+      <c r="H38" s="14" t="n">
         <v>26230</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
+      <c r="I38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16" t="n">
+        <v>24552.436</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="10" t="n">
+      <c r="E39" s="12" t="n">
         <v>96463</v>
       </c>
-      <c r="F39" s="11" t="n">
+      <c r="F39" s="13" t="n">
         <v>61150</v>
       </c>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="13" t="n">
         <v>61226</v>
       </c>
-      <c r="H39" s="12" t="n">
+      <c r="H39" s="14" t="n">
         <v>58270</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="14"/>
+      <c r="I39" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="15"/>
+      <c r="K39" s="16" t="n">
+        <v>54828.754</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3"/>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="12" t="n">
         <v>43377</v>
       </c>
-      <c r="F40" s="11" t="n">
+      <c r="F40" s="13" t="n">
         <v>27336</v>
       </c>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="13" t="n">
         <v>27342</v>
       </c>
-      <c r="H40" s="12" t="n">
+      <c r="H40" s="14" t="n">
         <v>26325</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
+      <c r="I40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="16" t="n">
+        <v>24347.61</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3"/>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="10" t="n">
+      <c r="E41" s="12" t="n">
         <v>97695</v>
       </c>
-      <c r="F41" s="11" t="n">
+      <c r="F41" s="13" t="n">
         <v>60194</v>
       </c>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="13" t="n">
         <v>60031</v>
       </c>
-      <c r="H41" s="12" t="n">
+      <c r="H41" s="14" t="n">
         <v>57533</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="14"/>
+      <c r="I41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="16" t="n">
+        <v>54551</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3"/>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="10" t="n">
+      <c r="E42" s="12" t="n">
         <v>169251</v>
       </c>
-      <c r="F42" s="11" t="n">
+      <c r="F42" s="13" t="n">
         <v>109747</v>
       </c>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="13" t="n">
         <v>102979</v>
       </c>
-      <c r="H42" s="12" t="n">
+      <c r="H42" s="14" t="n">
         <v>102912</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
+      <c r="I42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16" t="n">
+        <v>97821.35</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3"/>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="10" t="n">
+      <c r="E43" s="12" t="n">
         <v>172654</v>
       </c>
-      <c r="F43" s="11" t="n">
+      <c r="F43" s="13" t="n">
         <v>108448</v>
       </c>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="13" t="n">
         <v>102437</v>
       </c>
-      <c r="H43" s="12" t="n">
+      <c r="H43" s="14" t="n">
         <v>102411</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="14"/>
+      <c r="I43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16" t="n">
+        <v>97105</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3"/>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="17" t="n">
         <v>175078</v>
       </c>
-      <c r="F44" s="16" t="n">
+      <c r="F44" s="18" t="n">
         <v>107381</v>
       </c>
-      <c r="G44" s="16" t="n">
+      <c r="G44" s="18" t="n">
         <v>102279</v>
       </c>
-      <c r="H44" s="18" t="n">
+      <c r="H44" s="20" t="n">
         <v>102279</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
+      <c r="I44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22" t="n">
+        <v>97034</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
